--- a/03.crawler/04.Cardone/file/crawler_1-vehicle_error.xlsx
+++ b/03.crawler/04.Cardone/file/crawler_1-vehicle_error.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,29 +456,29 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Application Summary</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>OEM</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Picture</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Url</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Subtitle</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Application Summary</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>OEM</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Picture</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Url</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Json_Src</t>
@@ -491,20 +491,10 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Bundle</t>
+          <t>Request_Url</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Auth</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Request_Url</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Check_Url</t>
         </is>
@@ -531,53 +521,6875 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CARDONE Reman</t>
+          <t>Hummer H3 2010-06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Hummer H3 2010-06</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
           <t>15943193</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-40-10000</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92522/5527861/482__03679.1687996091.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92522/5527868/482__44407.1687996095.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92522/5527870/482__36502.1687996097.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92522/5527874/482__06361.1687996099.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92522/5527875/482__83277.1687996100.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92522/5527877/482__62976.1687996101.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|40-10000"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "3.0000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617827195"}, "13": {"_addonCardone": "40-10000::98271:100090:306"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:40-10000)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
           <t>https://www.cardone.com/product/windshield-wiper-motor-40-10000</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92522/5527861/482__03679.1687996091.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92522/5527868/482__44407.1687996095.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92522/5527870/482__36502.1687996097.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92522/5527874/482__06361.1687996099.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92522/5527875/482__83277.1687996100.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92522/5527877/482__62976.1687996101.jpg?c=1"}</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>{"0": {"productDeskExternalKey": "CPCX|40-10000"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "3.0000"}, "8": {"Washer Pump Included": "No"}, "9": {"Part Type": "Windshield Wiper Motor"}, "10": {"Warranty Info": "1 Year/18,000 Mile"}, "11": {"Sustainable Choice": "Yes"}, "12": {"Lifecycle Status": "Available to Order"}, "13": {"Application Summary": "Hummer H3 2010-06"}, "14": {"ItemLevelGTIN": "00082617827195"}, "15": {"_addonCardone": "40-10000::98271:100090:306"}, "16": {"Eligible for R&amp;R Service": "Yes"}}</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>https://cdn11.bigcommerce.com/s-z9vhe3o238/stencil/8e248850-42e4-013d-3750-4aa5abd8f847/e/f1f3ec70-a1ca-013c-1d69-569dcc364c94/dist/theme-bundle.main.js</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:40-10000)&amp;size=5000&amp;useCache=true&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>https://www.cardone.com/product/windshield-wiper-motor-40-10000</t>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>76</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>40-1063</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 40-1063</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Hummer H2 2007-03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>88944398</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-40-1063</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/82409/5486749/482__00018.1687972822.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/82409/5486754/482__01101.1687972823.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/82409/5486756/482__54298.1687972824.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/82409/5486757/482__27450.1687972825.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/82409/5486760/482__29963.1687972826.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|40-1063"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "3.0000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617748087"}, "13": {"_addonCardone": "40-1063::98271:100646:306"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:40-1063)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-40-1063</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>80</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>40-1068</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 40-1068</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Hummer H2 2009-03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>15112266;15248351</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-40-1068</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/87457/5517340/482__86698.1687990157.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/87457/5517343/482__63534.1687990159.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/87457/5517346/482__28897.1687990160.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/87457/5517349/482__79337.1687990162.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/87457/5517351/482__75416.1687990165.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|40-1068"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "2.5000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617755504"}, "13": {"_addonCardone": "40-1068::98271:100669:306"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:40-1068)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-40-1068</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>201</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>40-2042</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 40-2042</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Mercury Villager 2002-99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>YF5Z17508BA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-40-2042</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/61307/5304703/482__76197.1687877742.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/61307/5304705/482__76642.1687877743.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/61307/5304708/482__27894.1687877744.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/61307/5304712/482__53036.1687877745.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/61307/5304716/482__79123.1687877745.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|40-2042"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "3.5000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617594707"}, "13": {"_addonCardone": "40-2042::98384:114539:510"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:40-2042)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-40-2042</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>375</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>43-1007</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-1007</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Merkur XR4Ti 1989-85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>E5RY17508B</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1007</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/56936/5420187/482__24361.1687933947.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/56936/5420190/482__13775.1687933949.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/56936/5420193/482__90249.1687933950.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/56936/5420199/482__39279.1687933951.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/56936/5420201/482__95762.1687933953.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-1007"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Washer Pump Included": "No"}, "8": {"Warranty Info": "1 Year/18,000 Mile"}, "9": {"Sustainable Choice": "Yes"}, "10": {"Lifecycle Status": "Available to Order"}, "11": {"Weight PG": "2.9400"}, "12": {"ItemLevelGTIN": "00082617142618"}, "13": {"_addonCardone": "43-1007::98268:106177:494"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-1007)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1007</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>395</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>43-1156</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-1156</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Hyundai Sonata 1996-95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9810034150</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1156</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/97059/5292849/482__86048.1687874135.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/97059/5292851/482__08899.1687874136.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/97059/5292855/482__98453.1687874137.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/97059/5292859/482__32199.1687874137.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/97059/5292863/482__68718.1687874138.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-1156"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "4"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.7800"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617571197"}, "13": {"_addonCardone": "43-1156::98268:107069:494"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-1156)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1156</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>402</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>43-1166</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-1166</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Hyundai Scoupe 1993-91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9810023000</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1166</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86165/5299061/482__88980.1687876027.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86165/5299063/482__74172.1687876028.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86165/5299065/482__56455.1687876029.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86165/5299067/482__14046.1687876030.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86165/5299070/482__89447.1687876030.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-1166"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.7500"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617265706"}, "13": {"_addonCardone": "43-1166::98268:107753:494"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-1166)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1166</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>403</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>43-1167</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-1167</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Hyundai Elantra 1995-92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9810028000</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1167</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/91701/5386521/482__06621.1687916002.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/91701/5386524/482__68709.1687916003.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/91701/5386526/482__90272.1687916004.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/91701/5386528/482__78952.1687916005.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/91701/5386531/482__26434.1687916005.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-1167"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "4"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.7800"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617377256"}, "13": {"_addonCardone": "43-1167::98268:107783:494"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-1167)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1167</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>404</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>43-1169</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-1169</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Hyundai Scoupe 1995-93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9810023001</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1169</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68174/5452884/482__37040.1687951312.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68174/5452885/482__27074.1687951313.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68174/5452889/482__65471.1687951313.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68174/5452890/482__14265.1687951314.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68174/5452894/482__09689.1687951315.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-1169"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.5000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617574648"}, "13": {"_addonCardone": "43-1169::98268:107822:494"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-1169)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1169</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>427</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>43-1250</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-1250</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>INFINITI G20 1996-91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2881559J00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1250</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68074/5528863/482__50841.1687996952.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68074/5528867/482__84368.1687996953.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68074/5528871/482__17197.1687996954.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68074/5528875/482__50034.1687996955.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68074/5528878/482__95071.1687996956.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68074/5528880/482__23240.1687996957.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-1250"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "4"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.9000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617377102"}, "13": {"_addonCardone": "43-1250::98268:109724:494"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-1250)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1250</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>428</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>43-1251</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-1251</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>INFINITI J30 1997-93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2881010Y00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1251</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69766/5316961/482__96371.1687881352.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69766/5316964/482__20934.1687881353.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69766/5316968/482__29795.1687881354.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69766/5316971/482__50352.1687881354.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69766/5316975/482__89695.1687881355.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-1251"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "4"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "3.5000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617377072"}, "13": {"_addonCardone": "43-1251::98268:109747:494"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-1251)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1251</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>429</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>43-1252</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-1252</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>INFINITI Q45 1993-90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2881560U00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1252</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68024/5330181/482__27164.1687885783.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68024/5330183/482__62694.1687885783.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68024/5330186/482__55657.1687885784.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68024/5330189/482__03141.1687885785.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68024/5330193/482__05936.1687885786.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-1252"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "4"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.8400"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617377119"}, "13": {"_addonCardone": "43-1252::98268:109766:494"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-1252)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1252</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>430</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>43-1253</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-1253</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Nissan Altima 1994-93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>288101E400</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1253</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68931/5405266/482__27499.1687925936.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68931/5405268/482__62006.1687925937.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68931/5405272/482__70016.1687925938.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68931/5405276/482__09151.1687925938.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68931/5405279/482__12401.1687925939.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-1253"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "4"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "3.4400"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617377089"}, "13": {"_addonCardone": "43-1253::98268:109787:494"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-1253)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1253</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>433</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>43-1307</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-1307</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Mercury Capri 1994-91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>E9JY17508A</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1307</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/90258/5374812/482__07430.1687909614.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/90258/5374815/482__13762.1687909615.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/90258/5374820/482__02995.1687909616.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/90258/5374823/482__10380.1687909617.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/90258/5374826/482__01966.1687909617.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-1307"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "4"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "3.2800"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617377270"}, "13": {"_addonCardone": "43-1307::98268:109847:494"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-1307)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1307</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>437</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>43-1406</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-1406</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Honda Civic 1981-80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>38410SA0671;38410SA0604</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1406</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69692/5416495/482__29770.1687931882.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69692/5416497/482__08186.1687931883.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69692/5416501/482__30096.1687931884.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69692/5416505/482__86925.1687931886.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69692/5416509/482__49413.1687931887.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-1406"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "2"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.0000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617042680"}, "13": {"_addonCardone": "43-1406::98268:109920:494"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-1406)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1406</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>443</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>43-1412</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-1412</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Honda Prelude 1984-83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>38410SB0671</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1412</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/77111/5506218/482__10577.1687982955.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/77111/5506221/482__52243.1687982956.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/77111/5506225/482__15046.1687982956.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/77111/5506229/482__42403.1687982957.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/77111/5506234/482__70004.1687982959.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-1412"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Terminal Type": "Blade"}, "5": {"Mounting Type": "Direct Bolt"}, "6": {"Weight PG": "3.1300"}, "7": {"Washer Pump Included": "No"}, "8": {"Warranty Info": "1 Year/18,000 Mile"}, "9": {"Sustainable Choice": "Yes"}, "10": {"Lifecycle Status": "Available to Order"}, "11": {"ItemLevelGTIN": "00082617142724"}, "12": {"_addonCardone": "43-1412::98268:110311:494"}, "13": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-1412)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1412</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>445</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>43-1414</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-1414</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Honda Prelude 1982</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>38410671664</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1414</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/61037/5491098/482__09147.1687974936.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/61037/5491100/482__31871.1687974937.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/61037/5491106/482__01328.1687974938.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/61037/5491108/482__06301.1687974938.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/61037/5491113/482__85894.1687974939.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-1414"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "3.2500"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617142731"}, "13": {"_addonCardone": "43-1414::98268:110343:494"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-1414)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1414</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>446</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>43-1415</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-1415</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Honda Prelude 1987-85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>38410SB0672</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1415</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/76121/5316196/482__67511.1687881104.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/76121/5316199/482__08255.1687881105.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/76121/5316203/482__10267.1687881106.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/76121/5316205/482__59515.1687881107.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/76121/5316208/482__24568.1687881107.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-1415"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "3.2000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617143189"}, "13": {"_addonCardone": "43-1415::98268:110357:494"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-1415)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1415</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>457</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>43-1429</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-1429</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Honda Prelude 1996-92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>76505SP0003</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1429</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/57474/5427949/482__29555.1687937864.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/57474/5427951/482__00717.1687937866.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/57474/5427953/482__90607.1687937867.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/57474/5427955/482__84604.1687937868.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/57474/5427958/482__12767.1687937870.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-1429"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "2.9800"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617456098"}, "13": {"_addonCardone": "43-1429::98268:110541:494"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-1429)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1429</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>466</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>43-1472</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-1472</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Mazda B2000 1987-86, B2200 1990-87, B2600 1990-87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>UB3967345A</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1472</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66503/5330583/482__66429.1687885898.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66503/5330585/482__56742.1687885899.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66503/5330588/482__69971.1687885900.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66503/5330593/482__00206.1687885901.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66503/5330597/482__96000.1687885902.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-1472"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "2.2400"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617081702"}, "13": {"_addonCardone": "43-1472::98268:111004:494"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-1472)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1472</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>477</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>43-1483</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-1483</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Mazda B2200 1993-90, B2600 1993-90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>UB3967345B</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1483</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/88978/5438333/482__05446.1687942920.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/88978/5438338/482__89049.1687942922.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/88978/5438342/482__23692.1687942923.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/88978/5438345/482__01633.1687942924.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/88978/5438347/482__36116.1687942926.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-1483"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "2.4200"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617377355"}, "13": {"_addonCardone": "43-1483::98268:111154:494"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-1483)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1483</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>480</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>43-1486</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-1486</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Mazda 929 1995-92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>HG3067340</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1486</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65765/5528832/482__38200.1687996934.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65765/5528835/482__46392.1687996935.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65765/5528837/482__10604.1687996936.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65765/5528839/482__20304.1687996938.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65765/5528843/482__96086.1687996939.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-1486"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "4"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.4000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617377294"}, "13": {"_addonCardone": "43-1486::98268:111188:494"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-1486)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-1486</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>646</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>43-2124</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-2124</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Mini Cooper 2015-02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>61617138789;61618229128</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-2124</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/93482/5314794/482__81659.1687880713.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/93482/5314796/482__62202.1687880713.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/93482/5314797/482__31489.1687880714.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/93482/5314799/482__38874.1687880715.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/93482/5314802/482__71627.1687880716.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/93482/5314804/482__00922.1687880717.jpg?c=1", "6": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/93482/5314808/482__99503.1687880717.jpg?c=1", "7": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/93482/5314812/482__22147.1687880718.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-2124"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "2.3500"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617848534"}, "13": {"_addonCardone": "43-2124::98264:119512:530"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-2124)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-2124</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>650</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>43-2131</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-2131</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Mini Cooper 2014-09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>61627168153</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-2131</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/75984/5335126/482__93198.1687887639.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/75984/5335129/482__68531.1687887641.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-2131"}, "1": {"E-Waste": "Yes"}, "2": {"Product Condition": "Remanufactured"}, "3": {"Weight PG": "2.0000"}, "4": {"Warranty Info": "1 Year/18,000 Mile"}, "5": {"Sustainable Choice": "Yes"}, "6": {"Lifecycle Status": "Available to Order"}, "7": {"ItemLevelGTIN": "00082617900713"}, "8": {"_addonCardone": "43-2131::98264:119583:530"}, "9": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-2131)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-2131</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>651</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>43-2132</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-2132</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Mini Cooper 2014-09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>61627168154</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-2132</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/95324/5380560/482__50675.1687912672.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/95324/5380564/482__81188.1687912673.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-2132"}, "1": {"E-Waste": "Yes"}, "2": {"Product Condition": "Remanufactured"}, "3": {"Weight PG": "2.0000"}, "4": {"Warranty Info": "1 Year/18,000 Mile"}, "5": {"Sustainable Choice": "Yes"}, "6": {"Lifecycle Status": "Available to Order"}, "7": {"ItemLevelGTIN": "00082617900720"}, "8": {"_addonCardone": "43-2132::98264:119601:530"}, "9": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-2132)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-2132</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>702</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>43-3442</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-3442</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz GLK250 2015-13, GLK350 2015-10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2049068002;2048202442</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-3442</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/83563/5522744/482__02136.1687993583.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/83563/5522746/482__61344.1687993584.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-3442"}, "1": {"E-Waste": "Yes"}, "2": {"Product Condition": "Remanufactured"}, "3": {"Weight PG": "2.0000"}, "4": {"Warranty Info": "1 Year/18,000 Mile"}, "5": {"Sustainable Choice": "Yes"}, "6": {"Lifecycle Status": "Available to Order"}, "7": {"ItemLevelGTIN": "00082617967518"}, "8": {"_addonCardone": "43-3442::98264:120560:530"}, "9": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-3442)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-3442</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>703</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>43-3443</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-3443</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz GLK250 2015-13, GLK350 2015-10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2048201340</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-3443</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/94847/5323297/482__31646.1687883164.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/94847/5323301/482__42947.1687883165.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-3443"}, "1": {"E-Waste": "Yes"}, "2": {"Product Condition": "Remanufactured"}, "3": {"Weight PG": "3.0000"}, "4": {"Warranty Info": "1 Year/18,000 Mile"}, "5": {"Sustainable Choice": "Yes"}, "6": {"Lifecycle Status": "Available to Order"}, "7": {"ItemLevelGTIN": "00082617967525"}, "8": {"_addonCardone": "43-3443::98264:120579:530"}, "9": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-3443)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-3443</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>711</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>43-35006</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-35006</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>VW POLO(MEX) 1997 F</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6X0955119</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-35006</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66087/5469297/482__80670.1687961946.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66087/5469299/482__84447.1687961948.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66087/5469302/482__17024.1687961949.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66087/5469306/482__55081.1687961951.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66087/5469308/482__22898.1687961952.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66087/5469309/482__37784.1687961953.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-35006"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Washer Pump Included": "No"}, "8": {"Warranty Info": "1 Year/18,000 Mile"}, "9": {"Sustainable Choice": "Yes"}, "10": {"Lifecycle Status": "Available to Order"}, "11": {"Weight PG": "2.5000"}, "12": {"ItemLevelGTIN": "00884548068858"}, "13": {"_addonCardone": "43-35006::98264:120730:530"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-35006)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-35006</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>760</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>43-4008</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4008</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Honda Odyssey 1998-95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>76505SX0A01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4008</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/91887/5491116/482__64070.1687974941.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/91887/5491118/482__19027.1687974942.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/91887/5491120/482__85443.1687974942.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/91887/5491121/482__74155.1687974943.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/91887/5491125/482__28615.1687974944.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4008"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "3.5000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617496247"}, "13": {"_addonCardone": "43-4008::98264:121497:530"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4008)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4008</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>766</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>43-4015</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4015</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Honda Prelude 2001-97, S2000 2009-00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>76505S04Q01;76505S04E01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4015</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65616/5459625/482__71787.1687955624.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65616/5459627/482__07134.1687955626.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65616/5459630/482__07675.1687955627.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65616/5459634/482__80325.1687955628.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65616/5459637/482__54129.1687955630.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4015"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "2.2890"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617588102"}, "13": {"_addonCardone": "43-4015::98264:121572:530"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4015)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4015</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>770</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>43-4019</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4019</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Honda Odyssey 1998-95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>76700SX0003;76700SX0023</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4019</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/83025/5452876/482__86260.1687951309.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/83025/5452879/482__39373.1687951310.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/83025/5452883/482__54044.1687951312.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/83025/5452887/482__00188.1687951313.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/83025/5452892/482__63877.1687951314.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/83025/5452895/482__38624.1687951315.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4019"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "1.8000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617620857"}, "13": {"_addonCardone": "43-4019::98264:121624:530"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4019)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4019</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>772</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>43-4021</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4021</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Honda Odyssey 2004-99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>76710S0XA01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4021</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/63285/5424791/482__57239.1687936379.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/63285/5424795/482__32118.1687936379.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/63285/5424798/482__54474.1687936380.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/63285/5424800/482__08626.1687936381.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/63285/5424801/482__41648.1687936382.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/63285/5424802/482__13798.1687936383.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4021"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.5000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617620871"}, "13": {"_addonCardone": "43-4021::98264:121650:530"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4021)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4021</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>779</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>43-4030</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4030</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Honda Insight 2006-00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>76505S3YA01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4030</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/78817/5308673/482__61937.1687879018.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/78817/5308676/482__66730.1687879018.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/78817/5308678/482__30629.1687879019.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/78817/5308680/482__54779.1687879020.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/78817/5308683/482__37606.1687879021.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/78817/5308687/482__05923.1687879022.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4030"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "4"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.8000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617757751"}, "13": {"_addonCardone": "43-4030::98359:97394:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4030)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4030</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>783</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>43-4034</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4034</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Honda Civic 2011-06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>76505SNAA01;76505SNAA02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4034</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69993/5448428/482__50070.1687948536.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69993/5448430/482__61606.1687948537.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69993/5448432/482__28773.1687948539.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69993/5448433/482__62195.1687948540.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69993/5448435/482__55123.1687948541.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69993/5448437/482__68821.1687948543.jpg?c=1", "6": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69993/5448439/482__70144.1687948544.jpg?c=1", "7": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69993/5448442/482__52997.1687948546.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4034"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "3.0000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617762281"}, "13": {"_addonCardone": "43-4034::98359:97693:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4034)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4034</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>785</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>43-4036</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4036</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Honda Pilot 2008-03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>76700S9VA01;76700S9VA02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4036</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/87673/5525541/482__01181.1687994838.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/87673/5525544/482__84625.1687994839.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/87673/5525548/482__16906.1687994840.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/87673/5525553/482__88064.1687994841.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/87673/5525556/482__17168.1687994841.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4036"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.5500"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617766883"}, "13": {"_addonCardone": "43-4036::98359:97734:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4036)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4036</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>786</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>43-4037</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4037</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Honda Odyssey 2010-05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>76710SHJA02;76710SHJA01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4037</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/95252/5292501/482__35990.1687873998.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/95252/5292502/482__88298.1687873999.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/95252/5292505/482__52039.1687874000.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/95252/5292508/482__91431.1687874001.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/95252/5292511/482__97114.1687874002.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/95252/5292514/482__55418.1687874002.jpg?c=1", "6": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/95252/5292517/482__94619.1687874003.jpg?c=1", "7": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/95252/5292521/482__47453.1687874004.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4037"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.4500"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617766937"}, "13": {"_addonCardone": "43-4037::98359:97756:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4037)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4037</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>788</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>43-4041</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4041</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Honda Civic 2011-06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>76505SVAA01;76505SVAA21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4041</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/89852/5428071/482__29781.1687937938.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/89852/5428074/482__19068.1687937940.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/89852/5428077/482__08001.1687937941.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/89852/5428078/482__46907.1687937943.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/89852/5428079/482__89370.1687937944.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/89852/5428081/482__67476.1687937946.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4041"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "3.4000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617779043"}, "13": {"_addonCardone": "43-4041::98359:97792:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4041)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4041</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>789</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>43-4042</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4042</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Honda Odyssey 2010-05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>76505TA0A01;76505SHJA01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4042</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/95891/5359865/482__46844.1687901024.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/95891/5359870/482__49802.1687901025.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/95891/5359872/482__51166.1687901026.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/95891/5359874/482__67786.1687901028.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/95891/5359879/482__03676.1687901030.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/95891/5359882/482__11585.1687901032.jpg?c=1", "6": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/95891/5359883/482__03521.1687901034.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4042"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "3.5000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617785167"}, "13": {"_addonCardone": "43-4042::98359:97806:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4042)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4042</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>795</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>43-4049</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4049</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Honda CRX 1991-88</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>76700SH2S01;76700SH2A01;76700SH2S02</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4049</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/67062/5311903/482__97538.1687879905.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/67062/5311906/482__11989.1687879906.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/67062/5311910/482__38098.1687879907.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/67062/5311913/482__76095.1687879908.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/67062/5311916/482__93080.1687879909.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/67062/5311920/482__84833.1687879910.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4049"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.2500"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617806176"}, "13": {"_addonCardone": "43-4049::98359:97871:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4049)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4049</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>800</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>43-4059</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4059</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Honda Ridgeline 2014-06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>76505SJCA01;76505SJCA02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4059</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/64578/5485368/482__52549.1687972213.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/64578/5485372/482__11598.1687972215.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/64578/5485375/482__95399.1687972216.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/64578/5485378/482__11685.1687972217.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/64578/5485381/482__76422.1687972219.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/64578/5485383/482__71568.1687972220.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4059"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt; Grommet"}, "7": {"Weight PG": "3.3500"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617853606"}, "13": {"_addonCardone": "43-4059::98359:98164:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4059)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4059</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>804</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>43-4066</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4066</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Honda Pilot 2015-09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>76700SZAA01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4066</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/80520/5304628/482__22872.1687877723.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/80520/5304632/482__44648.1687877723.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/80520/5304636/482__36986.1687877724.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/80520/5304639/482__12424.1687877725.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/80520/5304642/482__55648.1687877726.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/80520/5304646/482__73556.1687877726.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4066"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "1.9000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617891059"}, "13": {"_addonCardone": "43-4066::98359:98201:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4066)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4066</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>809</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>43-4077</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4077</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Honda Insight 2010</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>76710TM8003</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4077</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/93162/5380927/482__65379.1687912888.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/93162/5380929/482__22373.1687912889.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/93162/5380931/482__92358.1687912891.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/93162/5380933/482__09295.1687912892.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/93162/5380934/482__61219.1687912894.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/93162/5380936/482__48975.1687912895.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4077"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.0000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00884548068124"}, "13": {"_addonCardone": "43-4077::98359:98250:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4077)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4077</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>810</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>43-4078</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4078</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Honda Odyssey 2017-11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>76505TK8A02;76505TK8A01</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4078</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66987/5415357/482__37972.1687931236.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66987/5415361/482__36761.1687931237.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66987/5415364/482__59099.1687931239.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66987/5415367/482__98386.1687931240.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66987/5415369/482__92012.1687931242.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66987/5415371/482__58414.1687931243.jpg?c=1", "6": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66987/5415374/482__86265.1687931244.jpg?c=1", "7": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66987/5415377/482__39268.1687931246.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4078"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "3.4000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00884548085800"}, "13": {"_addonCardone": "43-4078::98359:98264:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4078)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4078</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>811</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>43-4079</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4079</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Honda Odyssey 2016-11</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>76700TK8A01</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4079</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/62427/5502168/482__96802.1687980914.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/62427/5502170/482__82730.1687980915.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/62427/5502172/482__08607.1687980916.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/62427/5502175/482__60451.1687980917.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/62427/5502176/482__19201.1687980919.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/62427/5502177/482__26785.1687980920.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4079"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.0000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00884548085817"}, "13": {"_addonCardone": "43-4079::98359:98276:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4079)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4079</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>812</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>43-4080</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4080</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Honda Civic 2015-12</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>76505TR0A01</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4080</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/54536/5514269/482__87531.1687987705.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/54536/5514271/482__90160.1687987707.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/54536/5514274/482__75174.1687987709.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/54536/5514278/482__66975.1687987710.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/54536/5514279/482__53943.1687987711.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/54536/5514282/482__42327.1687987712.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4080"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "2.0000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00884548086517"}, "13": {"_addonCardone": "43-4080::98359:98289:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4080)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4080</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>841</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>43-4210</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4210</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Mitsubishi Endeavor 2011-10 2008-04</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>MR563512</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4210</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/78585/5487066/482__42993.1687972940.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/78585/5487068/482__04088.1687972942.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/78585/5487071/482__80904.1687972943.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/78585/5487072/482__12537.1687972944.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/78585/5487075/482__15642.1687972946.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4210"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "3.1000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617643016"}, "13": {"_addonCardone": "43-4210::98359:98875:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4210)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4210</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>843</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>43-4213</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4213</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Mitsubishi Endeavor 2008-04</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>MN142182</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4213</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68903/5298236/482__31236.1687875797.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68903/5298238/482__12345.1687875798.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68903/5298241/482__94244.1687875799.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68903/5298245/482__75264.1687875800.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68903/5298248/482__73654.1687875801.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/68903/5298251/482__98323.1687875801.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4213"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "2"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "1.6500"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617768276"}, "13": {"_addonCardone": "43-4213::98359:98887:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4213)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4213</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>844</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>43-4214</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4214</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Mitsubishi Diamante 2004-97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>MR971322</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4214</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65483/5463057/482__01747.1687957685.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65483/5463061/482__53843.1687957686.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65483/5463067/482__17061.1687957688.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65483/5463070/482__69929.1687957691.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65483/5463071/482__42074.1687957693.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65483/5463074/482__16814.1687957694.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4214"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "2.6500"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617776868"}, "13": {"_addonCardone": "43-4214::98359:98892:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4214)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4214</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>846</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>43-4216</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4216</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Mitsubishi Eclipse 2005-00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>MR322195</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4216</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/90558/5378302/482__73689.1687911359.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/90558/5378306/482__73411.1687911360.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/90558/5378307/482__60264.1687911361.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/90558/5378311/482__21302.1687911362.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/90558/5378315/482__23222.1687911363.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/90558/5378319/482__33476.1687911363.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4216"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Washer Pump Included": "No"}, "8": {"Warranty Info": "1 Year/18,000 Mile"}, "9": {"Sustainable Choice": "Yes"}, "10": {"Lifecycle Status": "Available to Order"}, "11": {"Weight PG": "1.9000"}, "12": {"ItemLevelGTIN": "00082617784931"}, "13": {"_addonCardone": "43-4216::98359:98904:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4216)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4216</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>851</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>43-4230</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4230</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Mitsubishi Eclipse 2012-06</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>MN142094</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4230</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/70731/5433355/482__01000.1687940839.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/70731/5433362/482__00703.1687940840.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/70731/5433365/482__93943.1687940841.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/70731/5433368/482__22051.1687940841.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/70731/5433370/482__23547.1687940842.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/70731/5433373/482__68294.1687940843.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4230"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "1.8500"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617822336"}, "13": {"_addonCardone": "43-4230::98359:98929:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4230)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4230</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>861</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>43-4309</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4309</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>INFINITI I30 1999-96; Nissan Maxima 1999-95</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2881040U10</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4309</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/64545/5304405/482__88967.1687877661.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/64545/5304408/482__13843.1687877662.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/64545/5304412/482__50103.1687877662.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/64545/5304415/482__77391.1687877663.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/64545/5304419/482__48887.1687877664.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4309"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "4"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "3.1200"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617457057"}, "13": {"_addonCardone": "43-4309::98359:99113:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4309)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4309</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>863</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>43-43103</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-43103</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Nissan LEAF 2013-11</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>288103NA0A</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-43103</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/82200/5407329/482__73594.1687926944.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/82200/5407331/482__02880.1687926946.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-43103"}, "1": {"E-Waste": "Yes"}, "2": {"Product Condition": "Remanufactured"}, "3": {"Weight PG": "3.0000"}, "4": {"Warranty Info": "1 Year/18,000 Mile"}, "5": {"Sustainable Choice": "Yes"}, "6": {"Lifecycle Status": "Available to Order"}, "7": {"ItemLevelGTIN": "00884548028593"}, "8": {"_addonCardone": "43-43103::98359:99126:292"}, "9": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-43103)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-43103</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>865</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>43-43107</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-43107</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Nissan Juke 2017-11</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>287101KA0A</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-43107</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/58642/5420761/482__65736.1687934298.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/58642/5420762/482__02051.1687934300.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-43107"}, "1": {"E-Waste": "Yes"}, "2": {"Product Condition": "Remanufactured"}, "3": {"Weight PG": "2.4000"}, "4": {"Warranty Info": "1 Year/18,000 Mile"}, "5": {"Sustainable Choice": "Yes"}, "6": {"Lifecycle Status": "Available to Order"}, "7": {"ItemLevelGTIN": "00884548028630"}, "8": {"_addonCardone": "43-43107::98359:99139:292"}, "9": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-43107)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-43107</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>867</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>43-4311</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4311</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Nissan Altima 1996-95</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>288102B500</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4311</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/75543/5455724/482__80775.1687953042.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/75543/5455727/482__39720.1687953043.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/75543/5455730/482__65556.1687953044.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/75543/5455733/482__48798.1687953045.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/75543/5455736/482__36922.1687953045.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4311"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "4"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.8000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617457088"}, "13": {"_addonCardone": "43-4311::98359:99156:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4311)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4311</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>869</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>43-43112</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-43112</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Nissan Micra 2006-05</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>28810AX700</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-43112</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/89255/5323290/482__13919.1687883162.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/89255/5323293/482__06735.1687883163.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-43112"}, "1": {"E-Waste": "Yes"}, "2": {"Product Condition": "Remanufactured"}, "3": {"Weight PG": "1.5000"}, "4": {"Warranty Info": "1 Year/18,000 Mile"}, "5": {"Sustainable Choice": "Yes"}, "6": {"Lifecycle Status": "Available to Order"}, "7": {"ItemLevelGTIN": "00884548068759"}, "8": {"_addonCardone": "43-43112::98359:99170:292"}, "9": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-43112)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-43112</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>870</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>43-43113</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-43113</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Nissan Micra 2006-05</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>28710AX600</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-43113</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/91129/5338221/482__26925.1687889998.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/91129/5338224/482__97072.1687889999.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-43113"}, "1": {"E-Waste": "Yes"}, "2": {"Product Condition": "Remanufactured"}, "3": {"Weight PG": "1.5000"}, "4": {"Warranty Info": "1 Year/18,000 Mile"}, "5": {"Sustainable Choice": "Yes"}, "6": {"Lifecycle Status": "Available to Order"}, "7": {"ItemLevelGTIN": "00884548068766"}, "8": {"_addonCardone": "43-43113::98359:99178:292"}, "9": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-43113)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-43113</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>876</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>43-43120</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-43120</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Nissan NV1500 2021-12, NV2500 2021-12, NV3500 2021-12</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>288101PA0A</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-43120</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86533/5465652/482__77538.1687959468.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86533/5465655/482__46416.1687959469.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86533/5465657/482__84561.1687959470.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86533/5465660/482__73948.1687959471.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86533/5465663/482__61260.1687959473.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86533/5465665/482__31628.1687959474.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-43120"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt; Grommet"}, "7": {"Weight PG": "3.0000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00884548128217"}, "13": {"_addonCardone": "43-43120::98359:99308:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-43120)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-43120</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>885</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>43-4318</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4318</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>INFINITI I30 2001-00, I35 2004-02; Nissan Maxima 2003-00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>288102Y900;288102Y910;288102Y905</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4318</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/97263/5380614/482__89681.1687912703.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/97263/5380616/482__53361.1687912704.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/97263/5380619/482__76539.1687912706.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/97263/5380622/482__32988.1687912707.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/97263/5380623/482__93084.1687912708.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4318"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "4"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.6500"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617589833"}, "13": {"_addonCardone": "43-4318::98359:99373:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4318)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4318</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>891</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>43-4324</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4324</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Nissan Maxima 1988-85</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2870009E00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4324</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69706/5395861/482__69196.1687921546.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69706/5395865/482__30783.1687921547.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69706/5395868/482__81367.1687921548.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69706/5395872/482__24076.1687921549.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69706/5395874/482__19498.1687921551.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4324"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.0000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617620918"}, "13": {"_addonCardone": "43-4324::98359:99426:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4324)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4324</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>899</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>43-4332</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4332</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>INFINITI Q45 2006-02</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>28810AR000;28810AT30A</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4332</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92018/5362734/482__95774.1687902840.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92018/5362740/482__93671.1687902841.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92018/5362743/482__88504.1687902843.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92018/5362745/482__72823.1687902845.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92018/5362747/482__61426.1687902846.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92018/5362749/482__06248.1687902847.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4332"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "3.0000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617751438"}, "13": {"_addonCardone": "43-4332::98359:99455:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4332)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4332</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>900</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>43-4334</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4334</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Nissan Murano 2007-03</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>28710CB000;28710CA000</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4334</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/64497/5295046/482__96628.1687874949.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/64497/5295050/482__28519.1687874950.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/64497/5295053/482__47421.1687874951.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/64497/5295056/482__82530.1687874952.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/64497/5295059/482__84042.1687874952.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4334"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.5000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617751445"}, "13": {"_addonCardone": "43-4334::98359:99461:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4334)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4334</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>902</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>43-4337</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4337</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>INFINITI G35 2004-03</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>28815AM600</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4337</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/94082/5302990/482__47317.1687877075.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/94082/5302992/482__28796.1687877076.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/94082/5302994/482__60904.1687877077.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/94082/5302996/482__16268.1687877078.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/94082/5302999/482__46332.1687877078.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4337"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "3.0000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617755535"}, "13": {"_addonCardone": "43-4337::98359:99471:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4337)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4337</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>904</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>43-4339</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4339</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Nissan Altima 2001</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>288101Z200</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4339</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/81943/5338479/482__54496.1687890125.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/81943/5338484/482__00674.1687890126.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/81943/5338487/482__95056.1687890127.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/81943/5338490/482__88109.1687890127.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/81943/5338493/482__05201.1687890128.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/81943/5338498/482__53379.1687890129.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4339"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "4"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "3.0000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617767002"}, "13": {"_addonCardone": "43-4339::98359:99481:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4339)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4339</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>908</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>43-4343</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4343</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>INFINITI QX56 2011-04; Nissan Armada 2015-05, Pathfinder Armada 2004</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>287107S000</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4343</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65793/5325602/482__66872.1687883801.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65793/5325605/482__20479.1687883802.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65793/5325607/482__68633.1687883803.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65793/5325610/482__88746.1687883803.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65793/5325617/482__22111.1687883804.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65793/5325620/482__94783.1687883805.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4343"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "4"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.4500"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617784924"}, "13": {"_addonCardone": "43-4343::98359:99498:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4343)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4343</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>913</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>43-4348</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4348</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>INFINITI FX35 2008-03, FX45 2008-03</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>28710CG000</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4348</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/88629/5495508/482__74940.1687977511.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/88629/5495512/482__80898.1687977512.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/88629/5495515/482__77621.1687977513.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/88629/5495519/482__33358.1687977515.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/88629/5495522/482__21635.1687977516.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/88629/5495526/482__40760.1687977518.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4348"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.2000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617804981"}, "13": {"_addonCardone": "43-4348::98359:99530:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4348)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4348</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>914</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>43-4350</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4350</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>INFINITI M45 2004-03</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>28810CR900</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4350</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69751/5343637/482__91133.1687892657.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69751/5343639/482__72075.1687892658.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69751/5343643/482__59541.1687892659.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69751/5343646/482__63822.1687892660.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69751/5343650/482__49452.1687892660.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69751/5343654/482__36471.1687892661.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4350"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt; Grommet"}, "7": {"Weight PG": "2.9500"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617806534"}, "13": {"_addonCardone": "43-4350::98359:99535:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4350)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4350</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>916</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>43-4362</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4362</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>INFINITI M35 2010-06, M45 2010-06</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>28800EH10A;28800EH10B;28800EH100</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4362</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86334/5402585/482__63152.1687924503.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86334/5402587/482__23673.1687924504.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86334/5402589/482__39172.1687924505.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86334/5402592/482__58138.1687924505.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86334/5402595/482__88836.1687924506.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86334/5402600/482__07450.1687924507.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4362"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "3.0000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617817479"}, "13": {"_addonCardone": "43-4362::98359:99544:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4362)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4362</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>917</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>43-4367</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4367</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Nissan NX 1993-91</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2871061Y00</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4367</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/53903/5369929/482__55762.1687906923.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/53903/5369930/482__86635.1687906925.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4367"}, "1": {"E-Waste": "Yes"}, "2": {"Product Condition": "Remanufactured"}, "3": {"Weight PG": "2.7500"}, "4": {"Warranty Info": "1 Year/18,000 Mile"}, "5": {"Sustainable Choice": "Yes"}, "6": {"Lifecycle Status": "Available to Order"}, "7": {"ItemLevelGTIN": "00082617832007"}, "8": {"_addonCardone": "43-4367::98359:99547:292"}, "9": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4367)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4367</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>918</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>43-4369</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4369</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>INFINITI Q45 1996-93</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2881567U60</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4369</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/75448/5357931/482__52338.1687899972.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/75448/5357935/482__86810.1687899974.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/75448/5357940/482__32209.1687899975.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/75448/5357943/482__58807.1687899977.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/75448/5357945/482__06895.1687899978.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/75448/5357949/482__79708.1687899979.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4369"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "4"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "3.2000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617832021"}, "13": {"_addonCardone": "43-4369::98359:99552:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4369)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4369</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>920</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>43-4377</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4377</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>INFINITI G20 2001-99</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>288107J100</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4377</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/67678/5431223/482__39442.1687939742.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/67678/5431225/482__75112.1687939744.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/67678/5431227/482__71480.1687939746.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/67678/5431229/482__11067.1687939748.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/67678/5431232/482__79627.1687939749.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/67678/5431233/482__94682.1687939750.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4377"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "4"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.9500"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617834483"}, "13": {"_addonCardone": "43-4377::98359:99558:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4377)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4377</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>921</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>43-4379</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4379</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>INFINITI G37 2012-08</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>28800JK61A</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4379</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/84612/5447482/482__52899.1687947957.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/84612/5447484/482__46252.1687947958.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/84612/5447486/482__13742.1687947960.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/84612/5447488/482__55560.1687947961.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/84612/5447491/482__04069.1687947963.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/84612/5447494/482__29958.1687947964.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4379"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Terminal Type": "Blade"}, "5": {"Mounting Type": "Direct Bolt; Grommet"}, "6": {"Weight PG": "2.8000"}, "7": {"Washer Pump Included": "No"}, "8": {"Warranty Info": "1 Year/18,000 Mile"}, "9": {"Sustainable Choice": "Yes"}, "10": {"Lifecycle Status": "Available to Order"}, "11": {"ItemLevelGTIN": "00082617838467"}, "12": {"_addonCardone": "43-4379::98359:99560:292"}, "13": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4379)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4379</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>922</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>43-4380</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4380</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>INFINITI G35 2004-03</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>28815AM800</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4380</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/61439/5376295/482__41305.1687910382.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/61439/5376297/482__56730.1687910384.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/61439/5376299/482__14448.1687910385.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/61439/5376301/482__55378.1687910386.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/61439/5376304/482__62381.1687910387.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/61439/5376309/482__42939.1687910389.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4380"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "2.7000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617838658"}, "13": {"_addonCardone": "43-4380::98359:99562:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4380)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4380</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>923</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>43-4382</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4382</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>INFINITI QX4 2003-02; Nissan Pathfinder 2004-02</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>287005W500</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4382</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79770/5433237/482__42302.1687940801.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79770/5433239/482__14002.1687940802.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79770/5433240/482__26712.1687940803.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79770/5433242/482__68174.1687940804.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79770/5433245/482__61572.1687940804.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79770/5433246/482__08810.1687940805.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4382"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "1.9000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617838788"}, "13": {"_addonCardone": "43-4382::98359:99563:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4382)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4382</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>927</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>43-4386</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4386</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>INFINITI G25 2012-11, G35 2008, G37 2013</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>28810JK60A</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4386</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79724/5433157/482__10309.1687940767.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79724/5433160/482__45936.1687940767.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79724/5433163/482__34187.1687940768.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79724/5433167/482__23216.1687940769.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79724/5433171/482__28931.1687940770.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79724/5433175/482__19061.1687940770.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4386"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt; Grommet"}, "7": {"Weight PG": "3.1000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617864701"}, "13": {"_addonCardone": "43-4386::98359:99573:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4386)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4386</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>928</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>43-4387</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4387</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>INFINITI EX35 2012-08, EX37 2013, QX50 2014</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>288101BA0A</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4387</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/87649/5349345/482__29207.1687895550.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/87649/5349349/482__27402.1687895551.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4387"}, "1": {"E-Waste": "Yes"}, "2": {"Product Condition": "Remanufactured"}, "3": {"Weight PG": "3.0000"}, "4": {"Warranty Info": "1 Year/18,000 Mile"}, "5": {"Sustainable Choice": "Yes"}, "6": {"Lifecycle Status": "Available to Order"}, "7": {"ItemLevelGTIN": "00082617864718"}, "8": {"_addonCardone": "43-4387::98359:99575:292"}, "9": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4387)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4387</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>932</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>43-4393</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4393</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Nissan Murano 2014-09</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>288001AA0A</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4393</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/81567/5350560/482__82288.1687896283.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/81567/5350563/482__60219.1687896285.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/81567/5350564/482__99355.1687896286.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/81567/5350565/482__10116.1687896287.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/81567/5350566/482__69209.1687896289.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/81567/5350568/482__10226.1687896290.jpg?c=1", "6": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/81567/5350571/482__75145.1687896291.jpg?c=1", "7": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/81567/5350574/482__11059.1687896293.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4393"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt; Grommet"}, "7": {"Weight PG": "3.3000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617900652"}, "13": {"_addonCardone": "43-4393::98359:99591:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4393)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4393</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>933</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>43-4394</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4394</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Nissan Murano 2014-09</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>287101AA0A</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4394</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/96030/5499452/482__14497.1687979823.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/96030/5499456/482__71612.1687979824.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/96030/5499458/482__75858.1687979825.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/96030/5499462/482__67839.1687979827.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/96030/5499464/482__04270.1687979828.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/96030/5499467/482__45950.1687979830.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4394"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "2"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet; Through Hole"}, "7": {"Weight PG": "2.0000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617900669"}, "13": {"_addonCardone": "43-4394::98359:99592:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4394)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4394</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>936</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>43-4397</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4397</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Nissan Cube 2014-09, LEAF 2013-11</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>287101FA0A</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4397</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92165/5345135/482__05395.1687893382.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92165/5345137/482__48169.1687893383.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92165/5345139/482__07716.1687893384.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92165/5345143/482__76403.1687893385.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92165/5345144/482__62958.1687893386.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92165/5345148/482__09444.1687893386.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4397"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet; Through Hole"}, "7": {"Weight PG": "2.0000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617903103"}, "13": {"_addonCardone": "43-4397::98359:99607:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4397)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4397</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>938</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>43-4399</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4399</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>INFINITI G37 2012-09</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>28800JK600</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4399</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/57877/5397252/482__14125.1687922053.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/57877/5397256/482__65406.1687922054.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4399"}, "1": {"E-Waste": "Yes"}, "2": {"Product Condition": "Remanufactured"}, "3": {"Weight PG": "2.7500"}, "4": {"Warranty Info": "1 Year/18,000 Mile"}, "5": {"Sustainable Choice": "Yes"}, "6": {"Lifecycle Status": "Available to Order"}, "7": {"ItemLevelGTIN": "00082617903127"}, "8": {"_addonCardone": "43-4399::98359:99623:292"}, "9": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4399)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4399</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>942</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>43-4404</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4404</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Hyundai Accent 1996-95</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>9810022000</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4404</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79848/5447470/482__92926.1687947951.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79848/5447472/482__65448.1687947952.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79848/5447475/482__29823.1687947953.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79848/5447478/482__67563.1687947954.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79848/5447480/482__36236.1687947956.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4404"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "4"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.7800"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617499729"}, "13": {"_addonCardone": "43-4404::98359:99650:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4404)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4404</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>945</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>43-4407</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4407</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Mazda 626 2002-98</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>GD7A67340A;GD7A67340</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4407</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/88414/5500018/482__61952.1687980089.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/88414/5500023/482__32285.1687980090.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/88414/5500027/482__48444.1687980091.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/88414/5500031/482__51854.1687980092.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/88414/5500035/482__17740.1687980093.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/88414/5500037/482__56791.1687980094.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4407"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "4"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.8500"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617566841"}, "13": {"_addonCardone": "43-4407::98359:99670:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4407)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4407</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>947</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>43-4409</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4409</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Hyundai Elantra 2006-01</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>981102D200</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4409</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79637/5494625/482__21299.1687976831.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79637/5494628/482__62721.1687976832.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79637/5494633/482__09053.1687976833.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79637/5494636/482__41224.1687976835.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79637/5494639/482__06408.1687976836.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4409"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "2.6000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617595025"}, "13": {"_addonCardone": "43-4409::98359:99680:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4409)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4409</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>958</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>43-4421</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4421</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Mazda 3 2009-04, 3 Sport 2009</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>BP4K67450;BP4K67450A</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4421</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66907/5413263/482__12933.1687930368.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66907/5413267/482__87701.1687930369.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66907/5413271/482__06278.1687930370.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66907/5413274/482__51469.1687930371.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66907/5413277/482__30904.1687930372.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66907/5413280/482__92326.1687930372.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4421"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.2000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617760478"}, "13": {"_addonCardone": "43-4421::98359:99724:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4421)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4421</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>972</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>43-4458</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4458</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Hyundai Sonata 1998-96</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>9810034210</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4458</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79270/5510530/482__29605.1687984819.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79270/5510534/482__39641.1687984820.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79270/5510538/482__41315.1687984820.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79270/5510541/482__96726.1687984821.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79270/5510545/482__96319.1687984822.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4458"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "4"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.5000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617675383"}, "13": {"_addonCardone": "43-4458::98359:99804:292"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4458)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4458</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>977</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>43-4464</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4464</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Kia Sorento 2009-03</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>981103E000</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4464</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86442/5322666/482__33325.1687882996.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86442/5322669/482__02898.1687882997.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86442/5322672/482__85814.1687882997.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86442/5322676/482__36155.1687882998.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86442/5322678/482__78525.1687882999.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86442/5322682/482__64907.1687883000.jpg?c=1", "6": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86442/5322684/482__61747.1687883001.jpg?c=1", "7": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86442/5322686/482__37197.1687883001.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4464"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "3.0000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617760447"}, "13": {"_addonCardone": "43-4464::98353:89302:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4464)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4464</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>981</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>43-4473</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4473</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Mazda 6 2008-04</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>GM9A67450B</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4473</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79402/5493518/482__36633.1687976182.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79402/5493522/482__59102.1687976183.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79402/5493526/482__74454.1687976184.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79402/5493530/482__75755.1687976186.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79402/5493533/482__60451.1687976187.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/79402/5493536/482__98667.1687976189.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4473"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "1.8000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617838399"}, "13": {"_addonCardone": "43-4473::98353:89310:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4473)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4473</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>982</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>43-4475</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4475</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Mazda 5 2010-06</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>C23567450</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4475</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/82155/5411729/482__26105.1687929642.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/82155/5411730/482__52760.1687929643.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/82155/5411731/482__31543.1687929644.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/82155/5411734/482__05592.1687929646.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/82155/5411737/482__38628.1687929647.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/82155/5411741/482__38857.1687929648.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4475"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "2"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Eyelet"}, "7": {"Weight PG": "1.8500"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617838733"}, "13": {"_addonCardone": "43-4475::98353:89312:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4475)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4475</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>983</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>43-4476</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4476</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Mazda 6 2007-04</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>GM9E67450</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4476</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/70185/5323409/482__07485.1687883194.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/70185/5323413/482__16987.1687883195.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/70185/5323415/482__28649.1687883195.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/70185/5323418/482__57291.1687883196.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/70185/5323421/482__66091.1687883197.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/70185/5323424/482__38126.1687883197.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4476"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.5000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617860857"}, "13": {"_addonCardone": "43-4476::98353:89314:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4476)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4476</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>987</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>43-4488</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4488</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Mazda 3 2013-10, 3 Sport 2013-10</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>BBM467340</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4488</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92432/5517483/482__85944.1687990275.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92432/5517487/482__54135.1687990277.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92432/5517493/482__38636.1687990279.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92432/5517496/482__06228.1687990280.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92432/5517499/482__93482.1687990283.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92432/5517502/482__60496.1687990294.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4488"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "3.0000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00884548068063"}, "13": {"_addonCardone": "43-4488::98353:89322:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4488)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4488</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>988</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>43-4489</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4489</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Mazda 3 2013-10, 3 Sport 2013-10</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>BBN967450</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4489</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/81697/5523461/482__98735.1687993874.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/81697/5523465/482__10852.1687993875.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/81697/5523469/482__66763.1687993875.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/81697/5523473/482__50633.1687993876.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/81697/5523474/482__60489.1687993877.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/81697/5523475/482__33785.1687993878.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4489"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "1.7000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00884548068070"}, "13": {"_addonCardone": "43-4489::98353:89324:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4489)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4489</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>989</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>43-4490</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4490</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Mazda 3 2018-14, 3 Sport 2018-14</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>BHS267340A;BJS767340</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4490</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/84396/5453521/482__56309.1687951759.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/84396/5453523/482__12678.1687951761.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/84396/5453527/482__67349.1687951762.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/84396/5453530/482__96467.1687951763.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/84396/5453535/482__08334.1687951764.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/84396/5453537/482__09103.1687951766.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4490"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet; Through Hole"}, "7": {"Weight PG": "2.5000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00884548197756"}, "13": {"_addonCardone": "43-4490::98353:89326:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4490)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4490</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>991</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>43-45004</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-45004</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Hyundai Equus 2016-11, Genesis 2014-09, Genesis Coupe 2010</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>981003M000;981103M000</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-45004</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/93399/5527829/482__12031.1687996069.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/93399/5527831/482__06833.1687996070.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-45004"}, "1": {"E-Waste": "Yes"}, "2": {"Product Condition": "Remanufactured"}, "3": {"Weight PG": "3.5000"}, "4": {"Warranty Info": "1 Year/18,000 Mile"}, "5": {"Sustainable Choice": "Yes"}, "6": {"Lifecycle Status": "Available to Order"}, "7": {"ItemLevelGTIN": "00082617900928"}, "8": {"_addonCardone": "43-45004::98353:89346:225"}, "9": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-45004)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-45004</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>993</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>43-45007</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-45007</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Hyundai Elantra 2012-09, Elantra GT 2013</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>987102L100</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-45007</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/94198/5378282/482__98995.1687911352.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/94198/5378287/482__89306.1687911353.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/94198/5378289/482__84221.1687911354.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/94198/5378291/482__80796.1687911355.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/94198/5378293/482__37152.1687911355.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/94198/5378295/482__02410.1687911356.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-45007"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "2"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.0000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617967150"}, "13": {"_addonCardone": "43-45007::98353:89354:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-45007)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-45007</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>43-45013</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-45013</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Hyundai ix35 2015, Tucson 2017-10</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>981102S000</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-45013</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92812/5303189/482__72124.1687877129.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92812/5303192/482__20980.1687877130.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92812/5303195/482__52474.1687877131.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92812/5303199/482__86777.1687877131.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92812/5303202/482__73461.1687877132.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/92812/5303205/482__99427.1687877133.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-45013"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "3.1000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617967310"}, "13": {"_addonCardone": "43-45013::98353:89369:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-45013)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-45013</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>43-45014</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-45014</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Hyundai ix35 2015, Tucson 2017-10</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>987001H300</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-45014</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/93760/5347561/482__93943.1687894727.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/93760/5347564/482__89118.1687894728.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/93760/5347567/482__63749.1687894729.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/93760/5347571/482__68438.1687894730.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/93760/5347573/482__49083.1687894731.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/93760/5347577/482__96340.1687894731.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-45014"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "2"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt; Grommet"}, "7": {"Weight PG": "2.4000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617967327"}, "13": {"_addonCardone": "43-45014::98353:89372:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-45014)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-45014</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>43-45022</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-45022</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Kia Sorento 2015-11</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>987002P500;987002P000</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-45022</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/76530/5402550/482__10726.1687924491.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/76530/5402551/482__44129.1687924492.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/76530/5402552/482__38230.1687924492.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/76530/5402554/482__37600.1687924493.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/76530/5402557/482__65292.1687924494.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/76530/5402560/482__87236.1687924495.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-45022"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "2"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.6000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00884548028821"}, "13": {"_addonCardone": "43-45022::98353:89385:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-45022)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-45022</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>43-45032</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-45032</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Hyundai Accent 2017-12</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>987101R000;987001R000</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-45032</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66775/5475394/482__01490.1687965727.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66775/5475398/482__86987.1687965728.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66775/5475399/482__48583.1687965729.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66775/5475402/482__66150.1687965730.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66775/5475403/482__11293.1687965731.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/66775/5475404/482__04476.1687965733.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-45032"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "4"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet; Through Hole"}, "7": {"Weight PG": "2.1500"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00884548116085"}, "13": {"_addonCardone": "43-45032::98353:89502:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-45032)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-45032</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>43-45038</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-45038</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Hyundai Sonata 2019-15</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>98110C2000</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-45038</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86268/5464931/482__32597.1687959060.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86268/5464933/482__30647.1687959061.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86268/5464935/482__18301.1687959062.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86268/5464937/482__36667.1687959063.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86268/5464939/482__07011.1687959065.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/86268/5464942/482__14483.1687959066.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-45038"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "1.9200"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00884548223189"}, "13": {"_addonCardone": "43-45038::98353:89529:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-45038)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-45038</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>43-4510</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4510</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Hyundai Sonata 2004-99, XG300 2001, XG350 2004-02</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>981103C100;9811038200</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4510</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/88574/5471480/482__08807.1687963299.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/88574/5471483/482__62835.1687963300.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/88574/5471486/482__78849.1687963302.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/88574/5471488/482__30643.1687963303.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/88574/5471491/482__91258.1687963304.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4510"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "2.5000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617705127"}, "13": {"_addonCardone": "43-4510::98353:89712:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4510)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4510</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>43-4512</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4512</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Hyundai Tiburon 2007-03</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>987002C050;987002C000</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4512</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/76212/5383982/482__24053.1687914648.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/76212/5383983/482__20749.1687914649.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/76212/5383986/482__55228.1687914650.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/76212/5383988/482__88837.1687914651.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/76212/5383992/482__64516.1687914653.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4512"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.5000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617705172"}, "13": {"_addonCardone": "43-4512::98353:89734:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4512)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4512</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>43-4513</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4513</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Hyundai Elantra 2000-96</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>9870029610;9870029600;9870029601</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4513</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/55586/5497625/482__54180.1687978914.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/55586/5497628/482__50963.1687978915.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/55586/5497630/482__75003.1687978915.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/55586/5497634/482__50231.1687978917.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/55586/5497635/482__66630.1687978917.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/55586/5497638/482__99889.1687978918.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4513"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "2"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.5000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617705165"}, "13": {"_addonCardone": "43-4513::98353:89747:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4513)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4513</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>43-4514</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4514</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Hyundai Santa Fe 2006-01</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>9870026000</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4514</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69286/5440861/482__43345.1687944436.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69286/5440864/482__79915.1687944438.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69286/5440866/482__30594.1687944439.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69286/5440867/482__35792.1687944441.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/69286/5440869/482__69860.1687944442.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4514"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "3.0000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617705158"}, "13": {"_addonCardone": "43-4514::98353:89759:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4514)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4514</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>43-4519</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4519</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Hyundai Santa Fe 2004-01; INFINITI FX35 2008-03, FX45 2008-03</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>9811026200;28815CG000</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4519</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/94671/5512526/482__97622.1687986270.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/94671/5512528/482__90705.1687986271.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/94671/5512532/482__45611.1687986273.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/94671/5512534/482__96826.1687986275.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/94671/5512536/482__66580.1687986276.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4519"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "3.0000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617761468"}, "13": {"_addonCardone": "43-4519::98353:89804:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4519)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4519</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>43-4521</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4521</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Hyundai Tiburon 2008-03</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>981002C100;981102C100</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4521</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/54455/5498578/482__82732.1687979296.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/54455/5498580/482__71999.1687979297.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/54455/5498581/482__73186.1687979299.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/54455/5498582/482__08750.1687979300.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/54455/5498585/482__47580.1687979302.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4521"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "2.5000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617759083"}, "13": {"_addonCardone": "43-4521::98353:89820:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4521)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4521</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1036</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>43-4522</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4522</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Kia Sorento 2009-03</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>987003E000</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4522</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/80180/5448130/482__73134.1687948357.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/80180/5448132/482__10626.1687948358.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/80180/5448136/482__76580.1687948360.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/80180/5448138/482__11883.1687948361.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/80180/5448141/482__69054.1687948363.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4522"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "2"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.8500"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617766814"}, "13": {"_addonCardone": "43-4522::98353:89941:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4522)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4522</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>43-4527</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4527</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Hyundai Elantra 2006-01</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>987002D001;987002D000</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4527</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/60996/5493879/482__08738.1687976386.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/60996/5493880/482__35844.1687976387.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/60996/5493882/482__52130.1687976389.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/60996/5493884/482__61132.1687976390.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/60996/5493888/482__02371.1687976392.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/60996/5493890/482__86585.1687976393.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4527"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.9000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617774604"}, "13": {"_addonCardone": "43-4527::98353:89980:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4527)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4527</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>43-4531</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4531</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Hyundai Santa Fe 2006-05</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>9811026500</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4531</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/84453/5450388/482__40050.1687949749.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/84453/5450390/482__61241.1687949751.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/84453/5450393/482__98314.1687949752.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/84453/5450394/482__18230.1687949753.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/84453/5450395/482__41294.1687949755.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/84453/5450397/482__52441.1687949756.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4531"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Direct Bolt"}, "7": {"Weight PG": "3.0000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617795722"}, "13": {"_addonCardone": "43-4531::98353:90003:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4531)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4531</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>43-4534</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4534</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Hyundai Tiburon 2001-00</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>9870027500</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4534</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/77339/5418830/482__68197.1687933125.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/77339/5418833/482__15302.1687933127.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/77339/5418837/482__03136.1687933128.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/77339/5418839/482__35363.1687933129.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/77339/5418843/482__88381.1687933131.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/77339/5418846/482__21529.1687933132.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4534"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.5000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617804967"}, "13": {"_addonCardone": "43-4534::98353:90026:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4534)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4534</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>43-4536</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4536</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Hyundai Tiburon 1999-97</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>9870027001;9870027000</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4536</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/75901/5322849/482__07388.1687883045.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/75901/5322853/482__31860.1687883046.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/75901/5322857/482__29050.1687883047.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/75901/5322863/482__90003.1687883048.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/75901/5322865/482__49096.1687883049.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/75901/5322869/482__47581.1687883049.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4536"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.5000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617805223"}, "13": {"_addonCardone": "43-4536::98353:90044:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4536)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4536</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1053</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>43-4543</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4543</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Hyundai Accent 1999-95</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>9870022000</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4543</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/87097/5384332/482__14440.1687914853.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/87097/5384334/482__04360.1687914854.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/87097/5384336/482__69317.1687914856.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/87097/5384338/482__01323.1687914857.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/87097/5384341/482__51914.1687914858.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/87097/5384345/482__64214.1687914860.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4543"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "1.9000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617824958"}, "13": {"_addonCardone": "43-4543::98353:90267:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4543)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4543</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>43-4573</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4573</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Hyundai Veracruz 2012-07</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>981003J000</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4573</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/80812/5524854/482__98473.1687994530.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/80812/5524857/482__10142.1687994531.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4573"}, "1": {"E-Waste": "Yes"}, "2": {"Product Condition": "Remanufactured"}, "3": {"Weight PG": "2.8000"}, "4": {"Warranty Info": "1 Year/18,000 Mile"}, "5": {"Sustainable Choice": "Yes"}, "6": {"Lifecycle Status": "Available to Order"}, "7": {"ItemLevelGTIN": "00082617838191"}, "8": {"_addonCardone": "43-4573::98353:90503:225"}, "9": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4573)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4573</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1068</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>43-4574</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4574</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Hyundai Veracruz 2012-07</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>987003J000</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4574</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/94774/5360161/482__20015.1687901183.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/94774/5360164/482__58379.1687901184.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/94774/5360165/482__52822.1687901185.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/94774/5360169/482__26244.1687901186.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/94774/5360173/482__05646.1687901187.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/94774/5360177/482__09294.1687901189.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4574"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.0000"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617838207"}, "13": {"_addonCardone": "43-4574::98353:90506:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4574)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>43-4597</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Windshield Wiper Motor - 43-4597</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Hyundai Santa Fe 2012-07</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>987102B000</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4597</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>CARDONE Reman</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>{"0": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65360/5341340/482__36843.1687891439.jpg?c=1", "1": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65360/5341345/482__97885.1687891441.jpg?c=1", "2": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65360/5341350/482__44177.1687891442.jpg?c=1", "3": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65360/5341354/482__70712.1687891444.jpg?c=1", "4": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65360/5341356/482__48579.1687891445.jpg?c=1", "5": "https://cdn11.bigcommerce.com/s-z9vhe3o238/images/stencil/1280x1280/products/65360/5341357/482__83841.1687891446.jpg?c=1"}</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>{"0": {"productDeskExternalKey": "CPCX|43-4597"}, "1": {"Package Contents": "Wiper Motor; Instruction Sheet"}, "2": {"E-Waste": "Yes"}, "3": {"Product Condition": "Remanufactured"}, "4": {"Mounting Hole Quantity": "3"}, "5": {"Terminal Type": "Blade"}, "6": {"Mounting Type": "Grommet"}, "7": {"Weight PG": "2.8500"}, "8": {"Washer Pump Included": "No"}, "9": {"Warranty Info": "1 Year/18,000 Mile"}, "10": {"Sustainable Choice": "Yes"}, "11": {"Lifecycle Status": "Available to Order"}, "12": {"ItemLevelGTIN": "00082617849142"}, "13": {"_addonCardone": "43-4597::98353:90575:225"}, "14": {"Eligible for R&amp;R Service": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>https://productdesk-api.cellacore.net/legacy/cardone/Vehicle/Recommendation/?q=(productSKU.keyword:43-4597)&amp;size=5000&amp;useCache=false&amp;auth=mXWIhUuYvk3hklMcdwLi4lwVd3s6VASw</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>https://www.cardone.com/product/windshield-wiper-motor-43-4597</t>
         </is>
       </c>
     </row>
